--- a/user credentials.xlsx
+++ b/user credentials.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Product Details" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -513,4 +515,236 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Product ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sauce Labs Backpack</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>carry.allTheThings() with the sleek, streamlined Sly Pack that melds uncompromising style with unequaled laptop and tablet protection.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$29.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sauce Labs Bike Light</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A red light isn't the desired state in testing but it sure helps when riding your bike at night. Water-resistant with 3 lighting modes, 1 AAA battery included.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$9.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sauce Labs Bolt T-Shirt</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Get your testing superhero on with the Sauce Labs bolt T-shirt. From American Apparel, 100% ringspun combed cotton, heather gray with red bolt.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$15.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sauce Labs Fleece Jacket</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>It's not every day that you come across a midweight quarter-zip fleece jacket capable of handling everything from a relaxing day outdoors to a busy day at the office.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sauce Labs Onesie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rib snap infant onesie for the junior automation engineer in development. Reinforced 3-snap bottom closure, two-needle hemmed sleeved and bottom won't unravel.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$7.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Test.allTheThings() T-Shirt (Red)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>This classic Sauce Labs t-shirt is perfect to wear when cozying up to your keyboard to automate a few tests. Super-soft and comfy ringspun combed cotton.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$15.99</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>User ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Login Message</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Epic sadface: Sorry, this user has been locked out.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>